--- a/documents/唐巢人才公寓/新系统模块需求清单.xlsx
+++ b/documents/唐巢人才公寓/新系统模块需求清单.xlsx
@@ -225,19 +225,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>耗材暂不管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家具家电，更换流程记录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充办理居住证流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>采购管理模块（跟踪家具、家电的采购流程）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耗材暂不管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补充办理居住证流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家具家电，更换流程记录。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,6 +371,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -388,12 +394,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,7 +767,7 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -780,20 +780,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
@@ -808,10 +808,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -820,13 +820,13 @@
       <c r="D4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
@@ -835,8 +835,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
@@ -845,28 +845,28 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -877,8 +877,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="7" t="s">
         <v>18</v>
       </c>
@@ -887,8 +887,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="6" t="s">
         <v>19</v>
       </c>
@@ -898,11 +898,11 @@
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -911,42 +911,42 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="7" t="s">
         <v>34</v>
       </c>
@@ -956,8 +956,8 @@
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
@@ -967,8 +967,8 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
@@ -978,7 +978,7 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="6" t="s">
         <v>31</v>
       </c>
@@ -989,7 +989,7 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="6" t="s">
         <v>41</v>
       </c>
@@ -1000,8 +1000,8 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -1013,8 +1013,8 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="6" t="s">
         <v>46</v>
       </c>
@@ -1024,8 +1024,8 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -1037,8 +1037,8 @@
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="6" t="s">
         <v>36</v>
       </c>
@@ -1055,28 +1055,30 @@
     </row>
     <row r="27" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="18" t="s">
-        <v>51</v>
+      <c r="D29" s="12" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D30" s="18" t="s">
-        <v>54</v>
+      <c r="D30" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="3"/>
+    </row>
     <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="34" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/documents/唐巢人才公寓/新系统模块需求清单.xlsx
+++ b/documents/唐巢人才公寓/新系统模块需求清单.xlsx
@@ -61,183 +61,183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>退租结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋催缴清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加弹窗提醒功能，当日至已付房款截止日期小于3日内的在打开系统后自动弹窗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房费查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加房费查询功能，可随时查询租客任何单月或多个月总房费（包括水、电、煤气等），可导出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司内部运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司文件档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租赁业务报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工自助服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示各部门常用联系人基础信息。方便部门之间的联系。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来记录员工每周备忘事宜以及各部门经理和总经理对下属员工工作情况了解及考核。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来存放公司日常相关文件（合同、请假单、宣传ppt等）电子版本，供员工随时使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到期提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源档案管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承租方管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将承租方管理模块移至内部运营模块中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以单个房源为单位，点开后可以显示每套房的详细信息，包括前期收房的手续文件、业主信息、房内设施信息，以及后期的出租情况信息、每月水电使用情况、租赁人信息、房屋收回期限等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总房源数，月收房数，现有房型占总房源比例，月收房数/当年总收房数等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据统计的数据，以图、表的形式进行汇总，以便更好的调整收房策略。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据统计的数据，以图、表的形式进行汇总，使销售可以直观的看出月销售的高、低峰以及退租高、低峰，租金变动对租房业绩的影响等，以便制定更好的销售策略。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总出租率（已出租/总房源），当年每月平均出租率（当年每月出租数相加/当年月数），整租、合租比例，不同房型占总房间数的出租比例，每月退租情况，提前退租占比例单个房间入住人数情况，不同房型的平均、最高、最低租金。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在新的房源添加模块中，需要加入业主方信息，包括合同相关文件的扫描归档等。房管在收房后，在此模块中输入基本信息，包括小区、地址、楼、房号等，并在收取所有收房资料后将相关资料扫描入系统，等待客服审核。原材料整理完毕，等待统一交至客服归档。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门锁管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加门锁管理模块，使门锁具备远程开锁、临时开锁等功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新系统开发需求清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括收租明细、汇总，发票台账，收据登记表，支持导出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提成分析、费用分析、成本预测、销售分析、预算编制等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据统计分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服登陆房源审核模块，里面包涵了房屋管家收房材料的扫描件，审核通过后的房源进入有效房源中，显示状态为不可租（装修中）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋的家电家具有标配，也可以按照非标配来做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗材暂不管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家具家电，更换流程记录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充办理居住证流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购管理模块（跟踪家具、家电的采购流程）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>合同添加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>退租结算</t>
+    <t>将原房源管理内的整租与合租功能移至合同添加内，在合同中直接选择，并在变更登记中同样添加整租与合租的切换功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>此系统与远程抄表系统对接后，在退组结算时能显示出租客的水电煤使用情况，并自动结算出包括租金以内的所有费用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房屋催缴清单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加弹窗提醒功能，当日至已付房款截止日期小于3日内的在打开系统后自动弹窗。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房费查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加房费查询功能，可随时查询租客任何单月或多个月总房费（包括水、电、煤气等），可导出。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司内部运营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司文件档案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>租赁业务报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工自助服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示各部门常用联系人基础信息。方便部门之间的联系。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用来记录员工每周备忘事宜以及各部门经理和总经理对下属员工工作情况了解及考核。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用来存放公司日常相关文件（合同、请假单、宣传ppt等）电子版本，供员工随时使用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到期提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房源档案管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>承租方管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将承租方管理模块移至内部运营模块中。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以单个房源为单位，点开后可以显示每套房的详细信息，包括前期收房的手续文件、业主信息、房内设施信息，以及后期的出租情况信息、每月水电使用情况、租赁人信息、房屋收回期限等。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房源统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总房源数，月收房数，现有房型占总房源比例，月收房数/当年总收房数等。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据统计的数据，以图、表的形式进行汇总，以便更好的调整收房策略。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据统计的数据，以图、表的形式进行汇总，使销售可以直观的看出月销售的高、低峰以及退租高、低峰，租金变动对租房业绩的影响等，以便制定更好的销售策略。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总出租率（已出租/总房源），当年每月平均出租率（当年每月出租数相加/当年月数），整租、合租比例，不同房型占总房间数的出租比例，每月退租情况，提前退租占比例单个房间入住人数情况，不同房型的平均、最高、最低租金。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在新的房源添加模块中，需要加入业主方信息，包括合同相关文件的扫描归档等。房管在收房后，在此模块中输入基本信息，包括小区、地址、楼、房号等，并在收取所有收房资料后将相关资料扫描入系统，等待客服审核。原材料整理完毕，等待统一交至客服归档。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门锁管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加门锁管理模块，使门锁具备远程开锁、临时开锁等功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新系统开发需求清单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括收租明细、汇总，发票台账，收据登记表，支持导出。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提成分析、费用分析、成本预测、销售分析、预算编制等。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据统计分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客服登陆房源审核模块，里面包涵了房屋管家收房材料的扫描件，审核通过后的房源进入有效房源中，显示状态为不可租（装修中）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将原房源管理内的整租与合租功能移至合同添加内，在合同中直接选择，并在变更登记中同样添加整租与合租的切换功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在合同变更登记模块添加租赁方式的变化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房屋的家电家具有标配，也可以按照非标配来做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耗材暂不管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家具家电，更换流程记录。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补充办理居住证流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购管理模块（跟踪家具、家电的采购流程）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="A5:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -781,7 +781,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -815,85 +815,85 @@
         <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" s="4"/>
     </row>
@@ -906,7 +906,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -915,7 +915,7 @@
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -948,10 +948,10 @@
       <c r="A17" s="14"/>
       <c r="B17" s="13"/>
       <c r="C17" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -959,10 +959,10 @@
       <c r="A18" s="14"/>
       <c r="B18" s="13"/>
       <c r="C18" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -970,45 +970,45 @@
       <c r="A19" s="14"/>
       <c r="B19" s="13"/>
       <c r="C19" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -1016,23 +1016,23 @@
       <c r="A23" s="14"/>
       <c r="B23" s="13"/>
       <c r="C23" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -1040,39 +1040,39 @@
       <c r="A25" s="14"/>
       <c r="B25" s="13"/>
       <c r="C25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D26" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="D28" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/documents/唐巢人才公寓/新系统模块需求清单.xlsx
+++ b/documents/唐巢人才公寓/新系统模块需求清单.xlsx
@@ -77,167 +77,167 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>公司内部运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司文件档案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租赁业务报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工自助服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示各部门常用联系人基础信息。方便部门之间的联系。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来记录员工每周备忘事宜以及各部门经理和总经理对下属员工工作情况了解及考核。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来存放公司日常相关文件（合同、请假单、宣传ppt等）电子版本，供员工随时使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到期提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源档案管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承租方管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将承租方管理模块移至内部运营模块中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以单个房源为单位，点开后可以显示每套房的详细信息，包括前期收房的手续文件、业主信息、房内设施信息，以及后期的出租情况信息、每月水电使用情况、租赁人信息、房屋收回期限等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总房源数，月收房数，现有房型占总房源比例，月收房数/当年总收房数等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据统计的数据，以图、表的形式进行汇总，以便更好的调整收房策略。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据统计的数据，以图、表的形式进行汇总，使销售可以直观的看出月销售的高、低峰以及退租高、低峰，租金变动对租房业绩的影响等，以便制定更好的销售策略。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总出租率（已出租/总房源），当年每月平均出租率（当年每月出租数相加/当年月数），整租、合租比例，不同房型占总房间数的出租比例，每月退租情况，提前退租占比例单个房间入住人数情况，不同房型的平均、最高、最低租金。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门锁管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加门锁管理模块，使门锁具备远程开锁、临时开锁等功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新系统开发需求清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括收租明细、汇总，发票台账，收据登记表，支持导出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提成分析、费用分析、成本预测、销售分析、预算编制等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据统计分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服登陆房源审核模块，里面包涵了房屋管家收房材料的扫描件，审核通过后的房源进入有效房源中，显示状态为不可租（装修中）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋的家电家具有标配，也可以按照非标配来做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗材暂不管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家具家电，更换流程记录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充办理居住证流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购管理模块（跟踪家具、家电的采购流程）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将原房源管理内的整租与合租功能移至合同添加内，在合同中直接选择，并在变更登记中同样添加整租与合租的切换功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此系统与远程抄表系统对接后，在退组结算时能显示出租客的水电煤使用情况，并自动结算出包括租金以内的所有费用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>增加房费查询功能，可随时查询租客任何单月或多个月总房费（包括水、电、煤气等），可导出。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公司内部运营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司文件档案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>租赁业务报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工自助服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示各部门常用联系人基础信息。方便部门之间的联系。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用来记录员工每周备忘事宜以及各部门经理和总经理对下属员工工作情况了解及考核。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用来存放公司日常相关文件（合同、请假单、宣传ppt等）电子版本，供员工随时使用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到期提醒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房源档案管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>承租方管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将承租方管理模块移至内部运营模块中。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以单个房源为单位，点开后可以显示每套房的详细信息，包括前期收房的手续文件、业主信息、房内设施信息，以及后期的出租情况信息、每月水电使用情况、租赁人信息、房屋收回期限等。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房源统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总房源数，月收房数，现有房型占总房源比例，月收房数/当年总收房数等。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据统计的数据，以图、表的形式进行汇总，以便更好的调整收房策略。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据统计的数据，以图、表的形式进行汇总，使销售可以直观的看出月销售的高、低峰以及退租高、低峰，租金变动对租房业绩的影响等，以便制定更好的销售策略。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总出租率（已出租/总房源），当年每月平均出租率（当年每月出租数相加/当年月数），整租、合租比例，不同房型占总房间数的出租比例，每月退租情况，提前退租占比例单个房间入住人数情况，不同房型的平均、最高、最低租金。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在新的房源添加模块中，需要加入业主方信息，包括合同相关文件的扫描归档等。房管在收房后，在此模块中输入基本信息，包括小区、地址、楼、房号等，并在收取所有收房资料后将相关资料扫描入系统，等待客服审核。原材料整理完毕，等待统一交至客服归档。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门锁管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加门锁管理模块，使门锁具备远程开锁、临时开锁等功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新系统开发需求清单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包括收租明细、汇总，发票台账，收据登记表，支持导出。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提成分析、费用分析、成本预测、销售分析、预算编制等。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据统计分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客服登陆房源审核模块，里面包涵了房屋管家收房材料的扫描件，审核通过后的房源进入有效房源中，显示状态为不可租（装修中）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房屋的家电家具有标配，也可以按照非标配来做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耗材暂不管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家具家电，更换流程记录。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补充办理居住证流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购管理模块（跟踪家具、家电的采购流程）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将原房源管理内的整租与合租功能移至合同添加内，在合同中直接选择，并在变更登记中同样添加整租与合租的切换功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>此系统与远程抄表系统对接后，在退组结算时能显示出租客的水电煤使用情况，并自动结算出包括租金以内的所有费用。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="A5:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -781,7 +781,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -815,13 +815,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -831,7 +831,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -841,14 +841,14 @@
         <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>12</v>
@@ -864,36 +864,36 @@
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="4"/>
     </row>
@@ -906,7 +906,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -915,7 +915,7 @@
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -948,10 +948,10 @@
       <c r="A17" s="14"/>
       <c r="B17" s="13"/>
       <c r="C17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -959,10 +959,10 @@
       <c r="A18" s="14"/>
       <c r="B18" s="13"/>
       <c r="C18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -970,45 +970,45 @@
       <c r="A19" s="14"/>
       <c r="B19" s="13"/>
       <c r="C19" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -1016,23 +1016,23 @@
       <c r="A23" s="14"/>
       <c r="B23" s="13"/>
       <c r="C23" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="D24" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -1040,39 +1040,39 @@
       <c r="A25" s="14"/>
       <c r="B25" s="13"/>
       <c r="C25" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D26" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="D28" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
